--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E718904-AAD2-404D-B76F-EC59FE64000E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B385A03F-5FF8-6D42-8FBE-950A22322BA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B385A03F-5FF8-6D42-8FBE-950A22322BA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4717D2-1BC9-094E-B188-7101FB16F7EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="2080" windowWidth="14400" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>First name</t>
   </si>
@@ -197,87 +197,6 @@
     <t>Women</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>AVERINA</t>
-  </si>
-  <si>
-    <t>Tula &amp; Tula-Marathon</t>
-  </si>
-  <si>
-    <t>Polina</t>
-  </si>
-  <si>
-    <t>PIVOVAROVA</t>
-  </si>
-  <si>
-    <t>DZEDZIKAVA</t>
-  </si>
-  <si>
-    <t>Anastasiya</t>
-  </si>
-  <si>
-    <t>JUCEVIČIŪTĖ</t>
-  </si>
-  <si>
-    <t>Gabriele</t>
-  </si>
-  <si>
-    <t>PAVLENDOVA</t>
-  </si>
-  <si>
-    <t>Alžbeta</t>
-  </si>
-  <si>
-    <t>BALEIŠYTĖ</t>
-  </si>
-  <si>
-    <t>Olivija</t>
-  </si>
-  <si>
-    <t>Galina</t>
-  </si>
-  <si>
-    <t>STRELTSOVA</t>
-  </si>
-  <si>
-    <t>HALYK</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>NASKOVICH</t>
-  </si>
-  <si>
-    <t>Taisa</t>
-  </si>
-  <si>
-    <t>TSERAKH</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>KAZLAUSKAITĖ</t>
-  </si>
-  <si>
-    <t>Kristina</t>
-  </si>
-  <si>
-    <t>SHARAKOVA</t>
-  </si>
-  <si>
-    <t>Tatsiana</t>
-  </si>
-  <si>
-    <t>BONDAR</t>
-  </si>
-  <si>
-    <t>Viktoriia</t>
-  </si>
-  <si>
     <t>Filip</t>
   </si>
   <si>
@@ -305,12 +224,6 @@
     <t>Vladyslav</t>
   </si>
   <si>
-    <t>MIRONAU</t>
-  </si>
-  <si>
-    <t>Uladzislau</t>
-  </si>
-  <si>
     <t>SUROVETS</t>
   </si>
   <si>
@@ -323,16 +236,31 @@
     <t>Kanstantsin</t>
   </si>
   <si>
-    <t>Martins</t>
-  </si>
-  <si>
-    <t>JIRGENSONS</t>
-  </si>
-  <si>
     <t>KORNILOVS</t>
   </si>
   <si>
     <t>Vitalijs</t>
+  </si>
+  <si>
+    <t>MUZYCHKINAS</t>
+  </si>
+  <si>
+    <t>Rojus</t>
+  </si>
+  <si>
+    <t>Adomaitis</t>
+  </si>
+  <si>
+    <t>Arvydas</t>
+  </si>
+  <si>
+    <t>Birenis</t>
+  </si>
+  <si>
+    <t>TSISHCHANKA</t>
+  </si>
+  <si>
+    <t>Hardzei</t>
   </si>
 </sst>
 </file>
@@ -373,10 +301,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -734,42 +663,42 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>10007498585</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
+        <v>10009166587</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>32700</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>10008920950</v>
+        <v>10007899016</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -781,39 +710,39 @@
         <v>35187</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>10009683715</v>
+        <v>10009325421</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
-        <v>32569</v>
+        <v>35190</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -821,28 +750,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>10016134518</v>
+        <v>10009733427</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
-        <v>35189</v>
+        <v>35200</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -850,28 +779,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>10006065716</v>
+        <v>10011006046</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
-        <v>35190</v>
+        <v>35202</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -879,28 +808,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>10010807905</v>
+        <v>10010948553</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
-        <v>35191</v>
+        <v>35189</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -908,28 +837,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>10005791183</v>
+        <v>10010177708</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2">
-        <v>35192</v>
+        <v>35205</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -937,28 +866,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>10010853068</v>
+        <v>10006902037</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
-        <v>28186</v>
+        <v>35199</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -966,28 +895,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
       </c>
       <c r="D10">
-        <v>10009049171</v>
+        <v>10010806790</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2">
-        <v>35194</v>
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>36051</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -995,28 +924,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>10010177910</v>
+        <v>10009192247</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2">
-        <v>35195</v>
+        <v>35201</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1024,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>10015874335</v>
+        <v>10010806992</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -1038,14 +967,14 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2">
-        <v>35196</v>
+      <c r="G12" s="3">
+        <v>35867</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1053,28 +982,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>10002669605</v>
+        <v>10005436731</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2">
-        <v>35197</v>
+        <v>35207</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1082,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>10009258531</v>
+        <v>10015959009</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -1097,13 +1026,13 @@
         <v>20</v>
       </c>
       <c r="G14" s="2">
-        <v>35198</v>
+        <v>35204</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1111,22 +1040,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>10006902037</v>
+        <v>10009032805</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2">
-        <v>35199</v>
+        <v>35205</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
@@ -1135,237 +1064,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16">
-        <v>10009733427</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="2">
-        <v>35200</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17">
-        <v>10009192247</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="2">
-        <v>35201</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18">
-        <v>10011006046</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2">
-        <v>35202</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19">
-        <v>10010178011</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="2">
-        <v>35203</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20">
-        <v>10015959009</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2">
-        <v>35204</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21">
-        <v>10010177708</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="2">
-        <v>35205</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22">
-        <v>10009847807</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2">
-        <v>35206</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23">
-        <v>10005436731</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="2">
-        <v>35207</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,7 +1097,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1496,35 +1216,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>10010948553</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2">
-        <v>35189</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4717D2-1BC9-094E-B188-7101FB16F7EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BB17E-16BC-0C43-8E6A-BE9B72AEA262}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="2080" windowWidth="14400" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="112">
   <si>
     <t>First name</t>
   </si>
@@ -197,6 +197,84 @@
     <t>Women</t>
   </si>
   <si>
+    <t>AVERINA</t>
+  </si>
+  <si>
+    <t>Tula &amp; Tula-Marathon</t>
+  </si>
+  <si>
+    <t>Polina</t>
+  </si>
+  <si>
+    <t>PIVOVAROVA</t>
+  </si>
+  <si>
+    <t>DZEDZIKAVA</t>
+  </si>
+  <si>
+    <t>Anastasiya</t>
+  </si>
+  <si>
+    <t>JUCEVIČIŪTĖ</t>
+  </si>
+  <si>
+    <t>Gabriele</t>
+  </si>
+  <si>
+    <t>PAVLENDOVA</t>
+  </si>
+  <si>
+    <t>Alžbeta</t>
+  </si>
+  <si>
+    <t>BALEIŠYTĖ</t>
+  </si>
+  <si>
+    <t>Olivija</t>
+  </si>
+  <si>
+    <t>Galina</t>
+  </si>
+  <si>
+    <t>STRELTSOVA</t>
+  </si>
+  <si>
+    <t>HALYK</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>NASKOVICH</t>
+  </si>
+  <si>
+    <t>Taisa</t>
+  </si>
+  <si>
+    <t>TSERAKH</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>KAZLAUSKAITĖ</t>
+  </si>
+  <si>
+    <t>Kristina</t>
+  </si>
+  <si>
+    <t>SHARAKOVA</t>
+  </si>
+  <si>
+    <t>Tatsiana</t>
+  </si>
+  <si>
+    <t>BONDAR</t>
+  </si>
+  <si>
+    <t>Viktoriia</t>
+  </si>
+  <si>
     <t>Filip</t>
   </si>
   <si>
@@ -261,6 +339,24 @@
   </si>
   <si>
     <t>Hardzei</t>
+  </si>
+  <si>
+    <t>Mariia</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>BIRYUKOVA</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Tdest</t>
   </si>
 </sst>
 </file>
@@ -622,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -659,419 +755,38 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D2">
-        <v>10009166587</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2">
-        <v>32700</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3">
-        <v>10007899016</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2">
-        <v>35187</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>10009325421</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2">
-        <v>35190</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>10009733427</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="2">
-        <v>35200</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6">
-        <v>10011006046</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>35202</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>10010948553</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2">
-        <v>35189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8">
-        <v>10010177708</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>35205</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+        <v>123455432</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9">
-        <v>10006902037</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2">
-        <v>35199</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <v>10010806790</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
-        <v>36051</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11">
-        <v>10009192247</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2">
-        <v>35201</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12">
-        <v>10010806992</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>35867</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13">
-        <v>10005436731</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2">
-        <v>35207</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14">
-        <v>10015959009</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2">
-        <v>35204</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15">
-        <v>10009032805</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2">
-        <v>35205</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
+      <c r="G2" s="3">
+        <v>35696</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1094,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243C9E7D-9BD0-7B42-A903-077ACB00A7C8}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1448,6 +1163,795 @@
         <v>44</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>10009166587</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>10007899016</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>10009325421</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>10009733427</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19">
+        <v>10011006046</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>10010948553</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>10010177708</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22">
+        <v>10006902037</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23">
+        <v>10010806790</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24">
+        <v>10009192247</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25">
+        <v>10010806992</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <v>10005436731</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27">
+        <v>10015959009</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>10009032805</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>10004623244</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="2">
+        <v>32700</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>10009258531</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2">
+        <v>35187</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33">
+        <v>10010807905</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>35190</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>10006065716</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2">
+        <v>35200</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35">
+        <v>10008956114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="2">
+        <v>35202</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>10010853068</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="2">
+        <v>35189</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="1">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <v>10007498585</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="2">
+        <v>35205</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38">
+        <v>10009084739</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="2">
+        <v>35199</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39">
+        <v>10008920950</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3">
+        <v>36051</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="1">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40">
+        <v>10002669605</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="2">
+        <v>35201</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="1">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41">
+        <v>10008946717</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="3">
+        <v>35867</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="1">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <v>10009049171</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="2">
+        <v>35207</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="1">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43">
+        <v>10015874335</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2">
+        <v>35204</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="1">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44">
+        <v>10010853169</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="2">
+        <v>35205</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="1">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45">
+        <v>10010177910</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="2">
+        <v>35200</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="1">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46">
+        <v>10009683715</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2">
+        <v>35202</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="1">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>10016134518</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2">
+        <v>35189</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="1">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48">
+        <v>10015336589</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2">
+        <v>35205</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="1">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49">
+        <v>10005791183</v>
+      </c>
+      <c r="F49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="2">
+        <v>35199</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BB17E-16BC-0C43-8E6A-BE9B72AEA262}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C5D38-B2F6-E549-951C-7AAFA44B943A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2080" windowWidth="14400" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
@@ -353,10 +353,10 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Tdest</t>
+    <t>TESTtte</t>
+  </si>
+  <si>
+    <t>Tdester</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +765,7 @@
         <v>111</v>
       </c>
       <c r="D2">
-        <v>123455432</v>
+        <v>120005432</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C5D38-B2F6-E549-951C-7AAFA44B943A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD87BE-DA86-FC4E-9A41-B6D98ACC2B1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
   <si>
     <t>First name</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Tdester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POOd .djsjs </t>
+  </si>
+  <si>
+    <t>selrect * from "Top"</t>
   </si>
 </sst>
 </file>
@@ -719,7 +725,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -765,7 +771,7 @@
         <v>111</v>
       </c>
       <c r="D2">
-        <v>120005432</v>
+        <v>91200054323</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -780,6 +786,64 @@
         <v>56</v>
       </c>
       <c r="I2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>35697</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>10009084739</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35195</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -812,7 +876,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A11" sqref="A11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD87BE-DA86-FC4E-9A41-B6D98ACC2B1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F30F1-54D9-7B4A-B314-6DF8992978B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="111">
   <si>
     <t>First name</t>
   </si>
@@ -353,16 +353,7 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>TESTtte</t>
-  </si>
-  <si>
-    <t>Tdester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POOd .djsjs </t>
-  </si>
-  <si>
-    <t>selrect * from "Top"</t>
+    <t>UCI ID</t>
   </si>
 </sst>
 </file>
@@ -725,11 +716,12 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -742,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -761,90 +753,90 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>91200054323</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3">
-        <v>35696</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
+        <v>10009166587</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>32700</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>234</v>
+        <v>10007899016</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3">
-        <v>35697</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35187</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>10010737476</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32569</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>10009084739</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2">
-        <v>35195</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -875,11 +867,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243C9E7D-9BD0-7B42-A903-077ACB00A7C8}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F30F1-54D9-7B4A-B314-6DF8992978B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19552B1-DC4A-8944-B7D8-9D59E2CD3460}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="111">
   <si>
     <t>First name</t>
   </si>
@@ -716,7 +716,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -757,95 +757,553 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>10009166587</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>10004623244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>32700</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>10007899016</v>
+        <v>10009258531</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>35187</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>10010807905</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35190</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>10006065716</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2">
+        <v>35200</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>10008956114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35202</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>10010853068</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>35189</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>10007498585</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35205</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>10009084739</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <v>35199</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>10008920950</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3">
+        <v>36051</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>10002669605</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="2">
+        <v>35201</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>10008946717</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="3">
+        <v>35867</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>10010737476</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>10009049171</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="2">
+        <v>35207</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>10015874335</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>35204</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15">
+        <v>10010853169</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>35205</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>10010177910</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2">
-        <v>32569</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
+      <c r="G16" s="2">
+        <v>35200</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>10009683715</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2">
+        <v>35202</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>10016134518</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>35189</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J18" s="1"/>
     </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>10015336589</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>35205</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>10005791183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2">
+        <v>35199</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -867,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243C9E7D-9BD0-7B42-A903-077ACB00A7C8}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19552B1-DC4A-8944-B7D8-9D59E2CD3460}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A05D5B-0A1C-4848-8256-52181AE65C64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="214">
   <si>
     <t>First name</t>
   </si>
@@ -354,16 +356,326 @@
   </si>
   <si>
     <t>UCI ID</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>GAVIRIA RENDON</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>KLUGE</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glenn </t>
+  </si>
+  <si>
+    <t>O'SHEA</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Elia</t>
+  </si>
+  <si>
+    <t>VIVIANI</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANSEN </t>
+  </si>
+  <si>
+    <t>Lasse Norman</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVENDISH </t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>VELDT</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>NED</t>
+  </si>
+  <si>
+    <t>DE BUYST</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOUDAT </t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Artyom</t>
+  </si>
+  <si>
+    <t>ZAKHAROV</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>MANAKOV</t>
+  </si>
+  <si>
+    <t>Chun Wing</t>
+  </si>
+  <si>
+    <t>LEUNG</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>TEKLINSKI</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Gael</t>
+  </si>
+  <si>
+    <t>SUTER</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>Sang-Hoon</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazushige </t>
+  </si>
+  <si>
+    <t>KUBOKI</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gideoni </t>
+  </si>
+  <si>
+    <t>MONTEIRO</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>DUEHRING</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>TROTT</t>
+  </si>
+  <si>
+    <t>Laurie</t>
+  </si>
+  <si>
+    <t>BERTHON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah </t>
+  </si>
+  <si>
+    <t>HAMMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVERIDGE </t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>EDMONDSON</t>
+  </si>
+  <si>
+    <t>Annette</t>
+  </si>
+  <si>
+    <t>D'HOORE</t>
+  </si>
+  <si>
+    <t>Jolien</t>
+  </si>
+  <si>
+    <t>WILD</t>
+  </si>
+  <si>
+    <t>Kirsten</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>ELLIS</t>
+  </si>
+  <si>
+    <t>Marlies</t>
+  </si>
+  <si>
+    <t>MEJIAS GARCIA</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>DIDERIKSEN</t>
+  </si>
+  <si>
+    <t>Amalie</t>
+  </si>
+  <si>
+    <t>OLABERRIA DORRONSORO</t>
+  </si>
+  <si>
+    <t>Leire</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>FRAPPORTI</t>
+  </si>
+  <si>
+    <t>Simona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNAUER </t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>HSIAO</t>
+  </si>
+  <si>
+    <t>Mei Yu</t>
+  </si>
+  <si>
+    <t>TPE</t>
+  </si>
+  <si>
+    <t>LUO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiao Ling </t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>Angie Sabrina</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>TSUKAGOSHI</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiao Juan </t>
+  </si>
+  <si>
+    <t>DIAO</t>
+  </si>
+  <si>
+    <t>Tamara</t>
+  </si>
+  <si>
+    <t>BALABOLINA</t>
+  </si>
+  <si>
+    <t>PARK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -372,6 +684,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Encodesans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,11 +722,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,19 +1045,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -752,589 +1084,1749 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2">
+        <v>10000000004</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="4">
+        <v>30546</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3">
+        <v>10004866653</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>31054</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4">
+        <v>10000000012</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="4">
+        <v>29589</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>10002669605</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4">
+        <v>30894</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1">
+      <c r="C17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1">
+      <c r="D23" s="7"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1">
+      <c r="C34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1">
+      <c r="C37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1">
+      <c r="C39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B2B81B-486C-494C-A1AD-2FCD3ABEF38F}">
+  <dimension ref="B2:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D2">
-        <v>10004623244</v>
+        <v>10000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2">
-        <v>32700</v>
+        <v>32673</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D3">
-        <v>10009258531</v>
+        <v>10006883344</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2">
-        <v>35187</v>
+        <v>33645</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>10010807905</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2">
-        <v>35190</v>
+        <v>10005932138</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="4">
+        <v>32665</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>10006065716</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2">
-        <v>35200</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>10008956114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2">
-        <v>35202</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7">
-        <v>10010853068</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>35189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>10007498585</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>35205</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9">
-        <v>10009084739</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2">
-        <v>35199</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10">
-        <v>10008920950</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3">
-        <v>36051</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11">
-        <v>10002669605</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="2">
-        <v>35201</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <v>10008946717</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="3">
-        <v>35867</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <v>10009049171</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="2">
-        <v>35207</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14">
-        <v>10015874335</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2">
-        <v>35204</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15">
-        <v>10010853169</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2">
-        <v>35205</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16">
-        <v>10010177910</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="2">
-        <v>35200</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17">
-        <v>10009683715</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="2">
-        <v>35202</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18">
-        <v>10016134518</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2">
-        <v>35189</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>10015336589</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2">
-        <v>35205</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20">
-        <v>10005791183</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="2">
-        <v>35199</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA2651F-0FB7-A343-8654-03941B9CAAA4}">
+  <dimension ref="B1:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2">
+        <v>10000000011</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="2">
+        <v>34565</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3">
+        <v>10003301620</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="2">
+        <v>31448</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>10000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="2">
+        <v>32673</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5">
+        <v>10005502914</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="2">
+        <v>32546</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>10006883344</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="2">
+        <v>33645</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7">
+        <v>10003292324</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="2">
+        <v>31188</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8">
+        <v>10000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30726</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9">
+        <v>10007357331</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="2">
+        <v>34297</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10">
+        <v>10007900026</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="2">
+        <v>34389</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11">
+        <v>10006895569</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="4">
+        <v>33538</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12">
+        <v>10000000003</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="4">
+        <v>33764</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13">
+        <v>10007771401</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34354</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14">
+        <v>10005364585</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="4">
+        <v>32815</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>10007259927</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="4">
+        <v>33686</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16">
+        <v>10007416440</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="4">
+        <v>34041</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17">
+        <v>10005932138</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="4">
+        <v>32665</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18">
+        <v>10009023711</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="4">
+        <v>34233</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19">
+        <v>10006416229</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="4">
+        <v>32753</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20">
+        <v>10004405501</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="4">
+        <v>33203</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10007240527</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="4">
+        <v>31267</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="18">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24">
+        <v>10007189300</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="3">
+        <v>33718</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25">
+        <v>10006464426</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="3">
+        <v>33842</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26">
+        <v>10000000004</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="3">
+        <v>30546</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27">
+        <v>10007211528</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="3">
+        <v>34121</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28">
+        <v>10006180193</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="3">
+        <v>33584</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29">
+        <v>10004779050</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="3">
+        <v>32946</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30">
+        <v>10000000005</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="3">
+        <v>30239</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31">
+        <v>10000000006</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="3">
+        <v>32617</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32">
+        <v>10000000007</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="3">
+        <v>33967</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33">
+        <v>10009487085</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="3">
+        <v>35209</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34">
+        <v>10004739341</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="3">
+        <v>28173</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35">
+        <v>10005497254</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="3">
+        <v>32338</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36">
+        <v>10008679056</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="3">
+        <v>34750</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37">
+        <v>10004866653</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" s="3">
+        <v>31054</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38">
+        <v>10002669605</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="3">
+        <v>30894</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39">
+        <v>10006711269</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="3">
+        <v>32406</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40">
+        <v>10000000012</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" s="3">
+        <v>29589</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41">
+        <v>10000000008</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="3">
+        <v>33341</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42">
+        <v>10000000009</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="3">
+        <v>30756</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43">
+        <v>10000000010</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="3">
+        <v>34194</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243C9E7D-9BD0-7B42-A903-077ACB00A7C8}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:J49"/>
+      <selection activeCell="B52" sqref="B52:J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1361,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1390,7 +2882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1419,7 +2911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1448,7 +2940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1477,7 +2969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1506,7 +2998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1535,7 +3027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1564,7 +3056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1593,7 +3085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1622,7 +3114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1651,7 +3143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1680,7 +3172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +3189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,7 +3206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1731,7 +3223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -1748,7 +3240,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
         <v>92</v>
       </c>
@@ -1765,7 +3257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1782,7 +3274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
         <v>96</v>
       </c>
@@ -1799,7 +3291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10">
       <c r="B22" t="s">
         <v>84</v>
       </c>
@@ -1816,7 +3308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
         <v>100</v>
       </c>
@@ -1833,7 +3325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
         <v>90</v>
       </c>
@@ -1850,7 +3342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10">
       <c r="B25" t="s">
         <v>102</v>
       </c>
@@ -1867,7 +3359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10">
       <c r="B26" t="s">
         <v>98</v>
       </c>
@@ -1884,7 +3376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10">
       <c r="B27" t="s">
         <v>94</v>
       </c>
@@ -1901,7 +3393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -1918,7 +3410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10">
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1947,7 +3439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10">
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -1976,7 +3468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10">
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -2005,7 +3497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10">
       <c r="B34" s="1">
         <v>4</v>
       </c>
@@ -2034,7 +3526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10">
       <c r="B35" s="1">
         <v>5</v>
       </c>
@@ -2063,7 +3555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10">
       <c r="B36" s="1">
         <v>6</v>
       </c>
@@ -2092,7 +3584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10">
       <c r="B37" s="1">
         <v>7</v>
       </c>
@@ -2121,7 +3613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10">
       <c r="B38" s="1">
         <v>8</v>
       </c>
@@ -2150,7 +3642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10">
       <c r="B39" s="1">
         <v>9</v>
       </c>
@@ -2179,7 +3671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10">
       <c r="B40" s="1">
         <v>10</v>
       </c>
@@ -2208,7 +3700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10">
       <c r="B41" s="1">
         <v>11</v>
       </c>
@@ -2237,7 +3729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10">
       <c r="B42" s="1">
         <v>12</v>
       </c>
@@ -2266,7 +3758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10">
       <c r="B43" s="1">
         <v>13</v>
       </c>
@@ -2295,7 +3787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10">
       <c r="B44" s="1">
         <v>14</v>
       </c>
@@ -2324,7 +3816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10">
       <c r="B45" s="1">
         <v>15</v>
       </c>
@@ -2353,7 +3845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10">
       <c r="B46" s="1">
         <v>16</v>
       </c>
@@ -2382,7 +3874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10">
       <c r="B47" s="1">
         <v>17</v>
       </c>
@@ -2411,7 +3903,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:10">
       <c r="B48" s="1">
         <v>18</v>
       </c>
@@ -2440,7 +3932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10">
       <c r="B49" s="1">
         <v>19</v>
       </c>
@@ -2468,6 +3960,563 @@
       <c r="J49" s="1" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52">
+        <v>10004623244</v>
+      </c>
+      <c r="F52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="2">
+        <v>32700</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53">
+        <v>10009258531</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="2">
+        <v>35187</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54">
+        <v>10010807905</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2">
+        <v>35190</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55">
+        <v>10006065716</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="2">
+        <v>35200</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56">
+        <v>10008956114</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="2">
+        <v>35202</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57">
+        <v>10010853068</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="2">
+        <v>35189</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="1">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58">
+        <v>10007498585</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="2">
+        <v>35205</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="1">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59">
+        <v>10009084739</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="2">
+        <v>35199</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="1">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60">
+        <v>10008920950</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="3">
+        <v>36051</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="1">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61">
+        <v>10002669605</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="2">
+        <v>35201</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="1">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62">
+        <v>10008946717</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="3">
+        <v>35867</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="1">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63">
+        <v>10009049171</v>
+      </c>
+      <c r="F63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="2">
+        <v>35207</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="1">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64">
+        <v>10015874335</v>
+      </c>
+      <c r="F64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="2">
+        <v>35204</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="1">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65">
+        <v>10010853169</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="2">
+        <v>35205</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="1">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66">
+        <v>10010177910</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="2">
+        <v>35200</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="1">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67">
+        <v>10009683715</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="2">
+        <v>35202</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="1">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68">
+        <v>10016134518</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="2">
+        <v>35189</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="1">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69">
+        <v>10015336589</v>
+      </c>
+      <c r="F69" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2">
+        <v>35205</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="1">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70">
+        <v>10005791183</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="2">
+        <v>35199</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A05D5B-0A1C-4848-8256-52181AE65C64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D48482-7C72-B744-92E2-15CD15DE5E39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="214">
   <si>
     <t>First name</t>
   </si>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1088,58 +1088,58 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>173</v>
+      <c r="B2" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D2">
-        <v>10000000004</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="4">
-        <v>30546</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>44</v>
+        <v>10000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="2">
+        <v>32673</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>199</v>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="D3">
-        <v>10004866653</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="4">
-        <v>31054</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>44</v>
+        <v>10006883344</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2">
+        <v>33645</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -1147,58 +1147,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>10000000012</v>
+        <v>10005932138</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="G4" s="4">
-        <v>29589</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>32665</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>10002669605</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4">
-        <v>30894</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="B6" s="5"/>
@@ -1511,93 +1491,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B2B81B-486C-494C-A1AD-2FCD3ABEF38F}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2">
-        <v>10000000001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="2">
-        <v>32673</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3">
-        <v>10006883344</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="2">
-        <v>33645</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4">
-        <v>10005932138</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="4">
-        <v>32665</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D48482-7C72-B744-92E2-15CD15DE5E39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2503C7-4817-D149-BA04-04516F157AC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -684,6 +684,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -727,7 +728,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1047,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1507,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA2651F-0FB7-A343-8654-03941B9CAAA4}">
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/server/helpers/registration.xlsx
+++ b/server/helpers/registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migleberesineviciute/Documents/GitHub/omnium/server/helpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2503C7-4817-D149-BA04-04516F157AC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29706AE6-BCF2-5B4D-A937-AA57587928FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="2080" windowWidth="26940" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="237">
   <si>
     <t>First name</t>
   </si>
@@ -665,6 +665,75 @@
   </si>
   <si>
     <t>PARK</t>
+  </si>
+  <si>
+    <t>GOLONKA</t>
+  </si>
+  <si>
+    <t>Kazimierz</t>
+  </si>
+  <si>
+    <t>SKORSKI</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>KEISS</t>
+  </si>
+  <si>
+    <t>MAKSEL</t>
+  </si>
+  <si>
+    <t>Krzysztof</t>
+  </si>
+  <si>
+    <t>NOVIK</t>
+  </si>
+  <si>
+    <t>Uladzislau</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>LENDEL</t>
+  </si>
+  <si>
+    <t>Vasilijus</t>
+  </si>
+  <si>
+    <t>COSTER</t>
+  </si>
+  <si>
+    <t>Ellie</t>
+  </si>
+  <si>
+    <t>GONCHAROVA</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>KISILEVA</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>KRUPECKAITE</t>
+  </si>
+  <si>
+    <t>MAROZAITE</t>
+  </si>
+  <si>
+    <t>Migle</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1090,19 +1159,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="D2">
-        <v>10000000001</v>
+        <v>10062011777</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2">
         <v>32673</v>
@@ -1119,19 +1188,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>10006883344</v>
+        <v>10062941765</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2">
         <v>33645</v>
@@ -1148,19 +1217,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>10005932138</v>
+        <v>10010737981</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4">
         <v>32665</v>
@@ -1173,84 +1242,265 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <v>10006902239</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="4">
+        <v>34832</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6">
+        <v>10009049979</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>32611</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7">
+        <v>10009181234</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>34832</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
+        <v>10008973995</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="3">
+        <v>33675</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9">
+        <v>10009045434</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3">
+        <v>32033</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10">
+        <v>10009325118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="3">
+        <v>33074</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11">
+        <v>10008918122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3">
+        <v>33301</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12">
+        <v>10002501368</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>31850</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13">
+        <v>10010640880</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>35126</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
@@ -1508,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA2651F-0FB7-A343-8654-03941B9CAAA4}">
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
